--- a/lucas-simscape/sim results.xlsx
+++ b/lucas-simscape/sim results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ry21092_bristol_ac_uk/Documents/Documents/Year 4/GIP/Simulink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CFC2B5-CB04-44DB-B357-7430147A0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{E8CFC2B5-CB04-44DB-B357-7430147A0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D718744-B441-4C4A-92C6-BD7B5DC430E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D975C15-FF41-4D95-BEF0-653705B4A760}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>L1 Hydraulic</t>
+  </si>
+  <si>
+    <t>NL1 Hydraulic</t>
+  </si>
+  <si>
+    <t>Pipe Area</t>
+  </si>
+  <si>
+    <t>Hydraulic spring stiffness</t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92441ACD-9578-44B8-BA3B-A06ABF857188}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -467,10 +479,11 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="5" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,10 +500,16 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -506,11 +525,17 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -526,11 +551,17 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.66</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -546,11 +577,17 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.64</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -566,12 +603,70 @@
       <c r="E5" s="2">
         <v>14</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="G10" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>12680</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>1.87</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14984</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
     </row>
